--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_25_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_25_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136987.0269323152</v>
+        <v>15939.15850488905</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21118222.51054865</v>
+        <v>21132912.79784805</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4095980.014371521</v>
+        <v>4095267.47322018</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.80723145564642</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>64.00529135902983</v>
       </c>
       <c r="U11" t="n">
-        <v>22.56862917338704</v>
+        <v>56.37586062903344</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.60029354266159</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>20.76449804307808</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>61.0163604023236</v>
+      </c>
+      <c r="V12" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>64.00529135902983</v>
-      </c>
-      <c r="T12" t="n">
-        <v>64.00529135902983</v>
-      </c>
-      <c r="U12" t="n">
-        <v>35.61136258595533</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.80723145564642</v>
+        <v>23.65357118422321</v>
       </c>
       <c r="R14" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>64.00529135902983</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="U14" t="n">
-        <v>22.56862917338704</v>
+        <v>57.9657161496181</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>33.42924826805087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,22 +1730,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R15" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>56.37586062903345</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>92.66494928910232</v>
       </c>
     </row>
     <row r="16">
@@ -1846,73 +1846,73 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>57.96571614961803</v>
       </c>
       <c r="D17" t="n">
-        <v>81.61928733384126</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>23.65357118422321</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="Y17" t="n">
         <v>92.66494928910228</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>92.66494928910228</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="H18" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.63472101604999</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>84.5694784127797</v>
       </c>
       <c r="S18" t="n">
-        <v>68.55494741742575</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>89.71475821016385</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.70400066026094</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>24.91528667358034</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.66494928910232</v>
+        <v>81.61928733384129</v>
       </c>
       <c r="T20" t="n">
-        <v>92.66494928910232</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.66494928910232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>81.61928733384133</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>92.66494928910232</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>92.66494928910232</v>
+        <v>67.27654854321858</v>
       </c>
       <c r="X21" t="n">
-        <v>92.66494928910232</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
     </row>
     <row r="22">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="F23" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H23" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>85.72887202374267</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>72.6063693281302</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>64.00465730907634</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R26" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W27" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="Y27" t="n">
-        <v>101.9028910972017</v>
+        <v>72.60636932813014</v>
       </c>
     </row>
     <row r="28">
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>40.60574820869726</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.361719200771938</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2915,25 +2915,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R30" t="n">
-        <v>83.39434727764328</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="T30" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>72.60636932813014</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W30" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H32" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="T32" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="V32" t="n">
-        <v>101.9028910972017</v>
+        <v>40.60574820869736</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>85.72887202374261</v>
       </c>
     </row>
     <row r="34">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9951433092431682</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.75606647841524</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>101.9028910972017</v>
+        <v>64.00465730907628</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>72.60636932813014</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.9028910972017</v>
+        <v>40.60574820869738</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H38" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R38" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>52.78471584294733</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.361719200771938</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.39434727764328</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R41" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>101.9028910972017</v>
+        <v>40.60574820869738</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>89.75606647841524</v>
+        <v>85.72887202374267</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>85.72887202374261</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="T44" t="n">
-        <v>89.75606647841524</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77.82933620411144</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.92673027430376</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>72.60636932813014</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="V45" t="n">
-        <v>101.9028910972017</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.9951433092431541</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="C11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="D11" t="n">
-        <v>5.120423308722386</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="E11" t="n">
-        <v>5.120423308722386</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="F11" t="n">
-        <v>5.120423308722386</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="G11" t="n">
         <v>5.120423308722386</v>
@@ -5044,10 +5044,10 @@
         <v>5.120423308722386</v>
       </c>
       <c r="K11" t="n">
-        <v>7.050050693765803</v>
+        <v>7.050050693765789</v>
       </c>
       <c r="L11" t="n">
-        <v>46.34568595217661</v>
+        <v>46.3456859521766</v>
       </c>
       <c r="M11" t="n">
         <v>109.7109243976161</v>
@@ -5062,31 +5062,31 @@
         <v>256.0211654361193</v>
       </c>
       <c r="Q11" t="n">
-        <v>221.8724467940522</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="R11" t="n">
-        <v>157.2206373404867</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="S11" t="n">
-        <v>92.56882788692126</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="T11" t="n">
-        <v>27.91701843335576</v>
+        <v>191.3693559825538</v>
       </c>
       <c r="U11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="V11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="W11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="X11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.120423308722386</v>
+        <v>134.4240422158534</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="C12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="D12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="E12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="F12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="G12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="H12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="I12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
       <c r="J12" t="n">
         <v>5.120423308722386</v>
@@ -5132,10 +5132,10 @@
         <v>144.6914155941064</v>
       </c>
       <c r="N12" t="n">
-        <v>208.0566540395459</v>
+        <v>192.6559269906798</v>
       </c>
       <c r="O12" t="n">
-        <v>212.0966978419297</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="P12" t="n">
         <v>256.0211654361193</v>
@@ -5144,28 +5144,28 @@
         <v>235.0469249885657</v>
       </c>
       <c r="R12" t="n">
-        <v>170.3951155350002</v>
+        <v>235.0469249885657</v>
       </c>
       <c r="S12" t="n">
-        <v>105.7433060814347</v>
+        <v>235.0469249885657</v>
       </c>
       <c r="T12" t="n">
-        <v>41.09149662786919</v>
+        <v>235.0469249885657</v>
       </c>
       <c r="U12" t="n">
-        <v>5.120423308722386</v>
+        <v>173.4142377134913</v>
       </c>
       <c r="V12" t="n">
-        <v>5.120423308722386</v>
+        <v>108.7624282599259</v>
       </c>
       <c r="W12" t="n">
-        <v>5.120423308722386</v>
+        <v>108.7624282599259</v>
       </c>
       <c r="X12" t="n">
-        <v>5.120423308722386</v>
+        <v>108.7624282599259</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.120423308722386</v>
+        <v>44.11061880636036</v>
       </c>
     </row>
     <row r="13">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.120423308722386</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="C14" t="n">
-        <v>5.120423308722386</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="D14" t="n">
-        <v>5.120423308722386</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="E14" t="n">
-        <v>5.120423308722386</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="F14" t="n">
-        <v>5.120423308722386</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="G14" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="H14" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="I14" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="J14" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="K14" t="n">
-        <v>7.050050693765789</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L14" t="n">
-        <v>46.3456859521766</v>
+        <v>75.16870670940386</v>
       </c>
       <c r="M14" t="n">
-        <v>109.7109243976161</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N14" t="n">
-        <v>173.0761628430557</v>
+        <v>258.6453063018265</v>
       </c>
       <c r="O14" t="n">
-        <v>236.4414012884952</v>
+        <v>337.6943058037297</v>
       </c>
       <c r="P14" t="n">
-        <v>256.0211654361193</v>
+        <v>370.6597971564093</v>
       </c>
       <c r="Q14" t="n">
-        <v>221.8724467940522</v>
+        <v>346.7673010107293</v>
       </c>
       <c r="R14" t="n">
-        <v>157.2206373404867</v>
+        <v>346.7673010107293</v>
       </c>
       <c r="S14" t="n">
-        <v>92.56882788692126</v>
+        <v>346.7673010107293</v>
       </c>
       <c r="T14" t="n">
-        <v>27.91701843335576</v>
+        <v>253.1663421328481</v>
       </c>
       <c r="U14" t="n">
-        <v>5.120423308722386</v>
+        <v>194.6151136988905</v>
       </c>
       <c r="V14" t="n">
-        <v>5.120423308722386</v>
+        <v>194.6151136988905</v>
       </c>
       <c r="W14" t="n">
-        <v>5.120423308722386</v>
+        <v>194.6151136988905</v>
       </c>
       <c r="X14" t="n">
-        <v>5.120423308722386</v>
+        <v>194.6151136988905</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.120423308722386</v>
+        <v>194.6151136988905</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.120423308722386</v>
+        <v>262.5712233385052</v>
       </c>
       <c r="C15" t="n">
-        <v>5.120423308722386</v>
+        <v>228.8043058960296</v>
       </c>
       <c r="D15" t="n">
-        <v>5.120423308722386</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="E15" t="n">
-        <v>5.120423308722386</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="F15" t="n">
-        <v>5.120423308722386</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="G15" t="n">
-        <v>5.120423308722386</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="H15" t="n">
-        <v>5.120423308722386</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I15" t="n">
-        <v>5.120423308722386</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J15" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="K15" t="n">
-        <v>17.9609387032273</v>
+        <v>28.29609765201167</v>
       </c>
       <c r="L15" t="n">
-        <v>81.32617714866683</v>
+        <v>102.6982772648968</v>
       </c>
       <c r="M15" t="n">
-        <v>144.6914155941064</v>
+        <v>194.4365770611081</v>
       </c>
       <c r="N15" t="n">
-        <v>148.7314593964902</v>
+        <v>279.9930347572612</v>
       </c>
       <c r="O15" t="n">
-        <v>212.0966978419297</v>
+        <v>370.6597971564093</v>
       </c>
       <c r="P15" t="n">
-        <v>256.0211654361193</v>
+        <v>370.6597971564093</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.0211654361193</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="R15" t="n">
-        <v>191.3693559825538</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="S15" t="n">
-        <v>191.3693559825538</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="T15" t="n">
-        <v>126.7175465289883</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="U15" t="n">
-        <v>62.06573707542285</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="V15" t="n">
-        <v>5.120423308722386</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="W15" t="n">
-        <v>5.120423308722386</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="X15" t="n">
-        <v>5.120423308722386</v>
+        <v>356.1721822163864</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.120423308722386</v>
+        <v>262.5712233385052</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="C16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="D16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="E16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="F16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="G16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="H16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="I16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="J16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="K16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="L16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="M16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="N16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="O16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="P16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="R16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="S16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="T16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="U16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="V16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="W16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="X16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128186</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>277.058838278528</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="C17" t="n">
-        <v>277.058838278528</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="D17" t="n">
-        <v>194.6151136988904</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="E17" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="F17" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G17" t="n">
-        <v>101.0141548210093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H17" t="n">
         <v>7.413195943128183</v>
@@ -5521,7 +5521,7 @@
         <v>21.18357364821455</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940382</v>
+        <v>75.16870670940378</v>
       </c>
       <c r="M17" t="n">
         <v>166.9070065056151</v>
@@ -5536,31 +5536,31 @@
         <v>370.6597971564091</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="R17" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="S17" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="T17" t="n">
-        <v>370.6597971564091</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="U17" t="n">
-        <v>277.058838278528</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="V17" t="n">
-        <v>277.058838278528</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="W17" t="n">
-        <v>277.058838278528</v>
+        <v>346.7673010107291</v>
       </c>
       <c r="X17" t="n">
-        <v>277.058838278528</v>
+        <v>253.166342132848</v>
       </c>
       <c r="Y17" t="n">
-        <v>277.058838278528</v>
+        <v>159.5653832549669</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="C18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="D18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="E18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="F18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="G18" t="n">
-        <v>201.5010450141585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H18" t="n">
-        <v>107.9000861362774</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I18" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J18" t="n">
         <v>7.413195943128183</v>
       </c>
       <c r="K18" t="n">
-        <v>7.413195943128183</v>
+        <v>28.29609765201167</v>
       </c>
       <c r="L18" t="n">
-        <v>81.81537555601331</v>
+        <v>102.6982772648968</v>
       </c>
       <c r="M18" t="n">
-        <v>173.5536753522246</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5580308522527</v>
+        <v>279.9930347572611</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514008</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="P18" t="n">
         <v>370.6597971564091</v>
       </c>
       <c r="Q18" t="n">
-        <v>356.1721822163862</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="R18" t="n">
-        <v>270.7484666479219</v>
+        <v>285.2360815879448</v>
       </c>
       <c r="S18" t="n">
-        <v>201.5010450141585</v>
+        <v>285.2360815879448</v>
       </c>
       <c r="T18" t="n">
-        <v>201.5010450141585</v>
+        <v>191.6351227100637</v>
       </c>
       <c r="U18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="V18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="W18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="X18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="Y18" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
     </row>
     <row r="19">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="C20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="D20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="E20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="F20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I20" t="n">
-        <v>32.58015217906792</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J20" t="n">
-        <v>7.413195943128186</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="K20" t="n">
-        <v>21.18357364821458</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L20" t="n">
-        <v>75.16870670940384</v>
+        <v>75.16870670940386</v>
       </c>
       <c r="M20" t="n">
         <v>166.9070065056151</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6453063018265</v>
+        <v>258.6453063018263</v>
       </c>
       <c r="O20" t="n">
-        <v>337.6943058037297</v>
+        <v>337.6943058037295</v>
       </c>
       <c r="P20" t="n">
-        <v>370.6597971564093</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6597971564093</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="R20" t="n">
-        <v>370.6597971564093</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="S20" t="n">
-        <v>277.0588382785281</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="T20" t="n">
-        <v>183.457879400647</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="U20" t="n">
-        <v>183.457879400647</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="V20" t="n">
-        <v>183.457879400647</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="W20" t="n">
-        <v>183.457879400647</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="X20" t="n">
-        <v>183.457879400647</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.85692052276585</v>
+        <v>7.413195943128183</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.413195943128186</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="C21" t="n">
-        <v>7.413195943128186</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="D21" t="n">
-        <v>7.413195943128186</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="E21" t="n">
-        <v>7.413195943128186</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="F21" t="n">
-        <v>7.413195943128186</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="G21" t="n">
-        <v>7.413195943128186</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H21" t="n">
-        <v>7.413195943128186</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I21" t="n">
-        <v>7.413195943128186</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J21" t="n">
-        <v>7.413195943128186</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="K21" t="n">
         <v>28.29609765201167</v>
       </c>
       <c r="L21" t="n">
-        <v>43.08143125983031</v>
+        <v>102.6982772648968</v>
       </c>
       <c r="M21" t="n">
-        <v>134.8197310560416</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5580308522529</v>
+        <v>279.9930347572611</v>
       </c>
       <c r="O21" t="n">
-        <v>317.224793251401</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="P21" t="n">
-        <v>370.6597971564093</v>
+        <v>370.6597971564091</v>
       </c>
       <c r="Q21" t="n">
-        <v>370.6597971564093</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="R21" t="n">
-        <v>370.6597971564093</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S21" t="n">
-        <v>370.6597971564093</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="T21" t="n">
-        <v>370.6597971564093</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="U21" t="n">
-        <v>288.2160725767716</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="V21" t="n">
-        <v>194.6151136988905</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="W21" t="n">
-        <v>101.0141548210093</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="X21" t="n">
-        <v>7.413195943128186</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.413195943128186</v>
+        <v>194.6151136988904</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="C22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="D22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="E22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="F22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="K22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="L22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="M22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="N22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="O22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="P22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="Q22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="R22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="S22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="T22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="U22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="V22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="W22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="X22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="Y22" t="n">
-        <v>370.6597971564093</v>
+        <v>7.413195943128183</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="C23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="D23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="E23" t="n">
-        <v>304.6793511593101</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="F23" t="n">
-        <v>201.7471379298134</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="G23" t="n">
-        <v>201.7471379298134</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H23" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I23" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J23" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K23" t="n">
-        <v>26.37736235377236</v>
+        <v>23.80676326264279</v>
       </c>
       <c r="L23" t="n">
-        <v>85.88901087540819</v>
+        <v>80.58313385421272</v>
       </c>
       <c r="M23" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168671</v>
       </c>
       <c r="N23" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O23" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P23" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q23" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="R23" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="S23" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="T23" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="U23" t="n">
-        <v>407.6115643888068</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="V23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="W23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="Y23" t="n">
-        <v>407.6115643888068</v>
+        <v>204.4141124136067</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J24" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K24" t="n">
-        <v>32.06085742250692</v>
+        <v>30.19753787044273</v>
       </c>
       <c r="L24" t="n">
-        <v>110.5314969235299</v>
+        <v>106.6545453422011</v>
       </c>
       <c r="M24" t="n">
-        <v>154.589690061403</v>
+        <v>200.0469590945696</v>
       </c>
       <c r="N24" t="n">
-        <v>255.4735522476327</v>
+        <v>296.4043425000024</v>
       </c>
       <c r="O24" t="n">
-        <v>350.5984854083566</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="P24" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q24" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="R24" t="n">
-        <v>407.6115643888068</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="S24" t="n">
-        <v>407.6115643888068</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="T24" t="n">
-        <v>407.6115643888068</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="U24" t="n">
-        <v>316.9488709762661</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="V24" t="n">
-        <v>214.0166577467695</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="W24" t="n">
-        <v>214.0166577467695</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="X24" t="n">
-        <v>111.0844445172728</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.0844445172728</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M25" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.152231287776136</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="C26" t="n">
-        <v>8.152231287776136</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="D26" t="n">
-        <v>8.152231287776136</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="E26" t="n">
-        <v>8.152231287776136</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="F26" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G26" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H26" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I26" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J26" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K26" t="n">
-        <v>26.37736235377247</v>
+        <v>23.80676326264273</v>
       </c>
       <c r="L26" t="n">
-        <v>85.88901087540827</v>
+        <v>80.58313385421303</v>
       </c>
       <c r="M26" t="n">
-        <v>183.7766239668947</v>
+        <v>175.4272232168673</v>
       </c>
       <c r="N26" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O26" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P26" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q26" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="R26" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="S26" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="T26" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="U26" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="V26" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="W26" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="X26" t="n">
-        <v>111.0844445172728</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="Y26" t="n">
-        <v>111.0844445172728</v>
+        <v>367.3791100071364</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>201.7471379298134</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C27" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D27" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E27" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F27" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G27" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H27" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I27" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J27" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K27" t="n">
-        <v>8.152231287776136</v>
+        <v>30.19753787044273</v>
       </c>
       <c r="L27" t="n">
-        <v>53.70582787517334</v>
+        <v>106.6545453422011</v>
       </c>
       <c r="M27" t="n">
-        <v>154.589690061403</v>
+        <v>203.0119287476339</v>
       </c>
       <c r="N27" t="n">
-        <v>255.4735522476327</v>
+        <v>241.1621858766904</v>
       </c>
       <c r="O27" t="n">
-        <v>350.5984854083566</v>
+        <v>334.0806046107601</v>
       </c>
       <c r="P27" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q27" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="R27" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="S27" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="T27" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="U27" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="V27" t="n">
-        <v>407.6115643888068</v>
+        <v>277.753879411718</v>
       </c>
       <c r="W27" t="n">
-        <v>304.6793511593101</v>
+        <v>179.4400508172554</v>
       </c>
       <c r="X27" t="n">
-        <v>304.6793511593101</v>
+        <v>81.12622222279271</v>
       </c>
       <c r="Y27" t="n">
-        <v>201.7471379298134</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N28" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O28" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P28" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.0166577467695</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="C29" t="n">
-        <v>111.0844445172728</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="D29" t="n">
-        <v>111.0844445172728</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="E29" t="n">
-        <v>111.0844445172728</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="F29" t="n">
-        <v>8.152231287776136</v>
+        <v>170.7514528182109</v>
       </c>
       <c r="G29" t="n">
-        <v>8.152231287776136</v>
+        <v>72.43762422374829</v>
       </c>
       <c r="H29" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="I29" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="J29" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K29" t="n">
-        <v>26.37736235377241</v>
+        <v>23.80676326264282</v>
       </c>
       <c r="L29" t="n">
-        <v>85.88901087540836</v>
+        <v>80.58313385421286</v>
       </c>
       <c r="M29" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168672</v>
       </c>
       <c r="N29" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223</v>
       </c>
       <c r="O29" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399325</v>
       </c>
       <c r="P29" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340719</v>
       </c>
       <c r="Q29" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071362</v>
       </c>
       <c r="R29" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071362</v>
       </c>
       <c r="S29" t="n">
-        <v>407.6115643888068</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="T29" t="n">
-        <v>407.6115643888068</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="U29" t="n">
-        <v>304.6793511593101</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="V29" t="n">
-        <v>304.6793511593101</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="W29" t="n">
-        <v>304.6793511593101</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="X29" t="n">
-        <v>304.6793511593101</v>
+        <v>269.0652814126736</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.6793511593101</v>
+        <v>269.0652814126736</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.57821027845486</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J30" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K30" t="n">
-        <v>8.152231287776136</v>
+        <v>30.19753787044273</v>
       </c>
       <c r="L30" t="n">
-        <v>53.70582787517334</v>
+        <v>106.6545453422011</v>
       </c>
       <c r="M30" t="n">
-        <v>154.589690061403</v>
+        <v>203.0119287476339</v>
       </c>
       <c r="N30" t="n">
-        <v>255.4735522476327</v>
+        <v>296.4043425000024</v>
       </c>
       <c r="O30" t="n">
-        <v>350.5984854083566</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="P30" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q30" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="R30" t="n">
-        <v>323.3748499669449</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="S30" t="n">
-        <v>220.4426367374482</v>
+        <v>277.753879411718</v>
       </c>
       <c r="T30" t="n">
-        <v>117.5104235079515</v>
+        <v>277.753879411718</v>
       </c>
       <c r="U30" t="n">
-        <v>117.5104235079515</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="V30" t="n">
-        <v>117.5104235079515</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="W30" t="n">
-        <v>14.57821027845486</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X30" t="n">
-        <v>14.57821027845486</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.57821027845486</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N31" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>201.7471379298134</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="C32" t="n">
-        <v>201.7471379298134</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="D32" t="n">
-        <v>111.0844445172728</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="E32" t="n">
-        <v>111.0844445172728</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="F32" t="n">
-        <v>111.0844445172728</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="G32" t="n">
-        <v>111.0844445172728</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="H32" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="I32" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="J32" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K32" t="n">
-        <v>26.37736235377234</v>
+        <v>23.80676326264285</v>
       </c>
       <c r="L32" t="n">
-        <v>85.88901087540818</v>
+        <v>80.58313385421278</v>
       </c>
       <c r="M32" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168672</v>
       </c>
       <c r="N32" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O32" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P32" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q32" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="R32" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="S32" t="n">
-        <v>407.6115643888068</v>
+        <v>269.0652814126737</v>
       </c>
       <c r="T32" t="n">
-        <v>304.6793511593101</v>
+        <v>269.0652814126737</v>
       </c>
       <c r="U32" t="n">
-        <v>304.6793511593101</v>
+        <v>170.751452818211</v>
       </c>
       <c r="V32" t="n">
-        <v>201.7471379298134</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="W32" t="n">
-        <v>201.7471379298134</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="X32" t="n">
-        <v>201.7471379298134</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="Y32" t="n">
-        <v>201.7471379298134</v>
+        <v>129.7355455366986</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>304.6793511593101</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C33" t="n">
-        <v>201.7471379298134</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D33" t="n">
-        <v>201.7471379298134</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E33" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F33" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G33" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H33" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I33" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J33" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K33" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L33" t="n">
-        <v>86.62287078879909</v>
+        <v>84.24346269643979</v>
       </c>
       <c r="M33" t="n">
-        <v>187.5067329750288</v>
+        <v>180.6008461018726</v>
       </c>
       <c r="N33" t="n">
-        <v>288.3905951612584</v>
+        <v>276.9582295073054</v>
       </c>
       <c r="O33" t="n">
-        <v>350.5984854083566</v>
+        <v>369.8766482413751</v>
       </c>
       <c r="P33" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q33" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="R33" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="S33" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="T33" t="n">
-        <v>304.6793511593101</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="U33" t="n">
-        <v>304.6793511593101</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="V33" t="n">
-        <v>304.6793511593101</v>
+        <v>291.0089326396094</v>
       </c>
       <c r="W33" t="n">
-        <v>304.6793511593101</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="X33" t="n">
-        <v>304.6793511593101</v>
+        <v>94.38127545068409</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.6793511593101</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T34" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y34" t="n">
-        <v>406.606369126945</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>304.6793511593101</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="C35" t="n">
-        <v>304.6793511593101</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="D35" t="n">
-        <v>201.7471379298134</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="E35" t="n">
-        <v>98.81492470031678</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="F35" t="n">
-        <v>98.81492470031678</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="G35" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H35" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I35" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J35" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K35" t="n">
-        <v>26.37736235377241</v>
+        <v>23.80676326264285</v>
       </c>
       <c r="L35" t="n">
-        <v>85.88901087540836</v>
+        <v>80.58313385421286</v>
       </c>
       <c r="M35" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168673</v>
       </c>
       <c r="N35" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O35" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P35" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q35" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="R35" t="n">
-        <v>407.6115643888068</v>
+        <v>269.0652814126737</v>
       </c>
       <c r="S35" t="n">
-        <v>407.6115643888068</v>
+        <v>269.0652814126737</v>
       </c>
       <c r="T35" t="n">
-        <v>304.6793511593101</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="U35" t="n">
-        <v>304.6793511593101</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="V35" t="n">
-        <v>304.6793511593101</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="W35" t="n">
-        <v>304.6793511593101</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="X35" t="n">
-        <v>304.6793511593101</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="Y35" t="n">
-        <v>304.6793511593101</v>
+        <v>106.1002838191441</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>201.7471379298134</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C36" t="n">
-        <v>98.81492470031678</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J36" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K36" t="n">
-        <v>8.152231287776136</v>
+        <v>30.19753787044273</v>
       </c>
       <c r="L36" t="n">
-        <v>86.62287078879909</v>
+        <v>106.6545453422011</v>
       </c>
       <c r="M36" t="n">
-        <v>154.589690061403</v>
+        <v>203.0119287476339</v>
       </c>
       <c r="N36" t="n">
-        <v>255.4735522476327</v>
+        <v>296.4043425000024</v>
       </c>
       <c r="O36" t="n">
-        <v>350.5984854083566</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="P36" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q36" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="R36" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="S36" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="T36" t="n">
-        <v>407.6115643888068</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="U36" t="n">
-        <v>407.6115643888068</v>
+        <v>277.753879411718</v>
       </c>
       <c r="V36" t="n">
-        <v>407.6115643888068</v>
+        <v>179.4400508172554</v>
       </c>
       <c r="W36" t="n">
-        <v>407.6115643888068</v>
+        <v>81.12622222279271</v>
       </c>
       <c r="X36" t="n">
-        <v>407.6115643888068</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.6793511593101</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N37" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O37" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P37" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R37" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S37" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>111.0844445172728</v>
+        <v>326.3632027256239</v>
       </c>
       <c r="C38" t="n">
-        <v>111.0844445172728</v>
+        <v>326.3632027256239</v>
       </c>
       <c r="D38" t="n">
-        <v>111.0844445172728</v>
+        <v>326.3632027256239</v>
       </c>
       <c r="E38" t="n">
-        <v>111.0844445172728</v>
+        <v>228.0493741311612</v>
       </c>
       <c r="F38" t="n">
-        <v>111.0844445172728</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="G38" t="n">
-        <v>111.0844445172728</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="H38" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="I38" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="J38" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K38" t="n">
-        <v>26.37736235377234</v>
+        <v>23.80676326264285</v>
       </c>
       <c r="L38" t="n">
-        <v>85.88901087540818</v>
+        <v>80.58313385421278</v>
       </c>
       <c r="M38" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168672</v>
       </c>
       <c r="N38" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O38" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P38" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q38" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="R38" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="S38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="T38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="U38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="V38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="W38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="X38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="Y38" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.57821027845486</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="C39" t="n">
-        <v>14.57821027845486</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="D39" t="n">
-        <v>14.57821027845486</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="E39" t="n">
-        <v>14.57821027845486</v>
+        <v>139.3772092542908</v>
       </c>
       <c r="F39" t="n">
-        <v>14.57821027845486</v>
+        <v>139.3772092542908</v>
       </c>
       <c r="G39" t="n">
-        <v>14.57821027845486</v>
+        <v>41.0633806598282</v>
       </c>
       <c r="H39" t="n">
-        <v>14.57821027845486</v>
+        <v>41.0633806598282</v>
       </c>
       <c r="I39" t="n">
-        <v>14.57821027845486</v>
+        <v>41.0633806598282</v>
       </c>
       <c r="J39" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K39" t="n">
-        <v>8.152231287776136</v>
+        <v>30.19753787044273</v>
       </c>
       <c r="L39" t="n">
-        <v>86.62287078879909</v>
+        <v>106.6545453422011</v>
       </c>
       <c r="M39" t="n">
-        <v>187.5067329750288</v>
+        <v>203.0119287476339</v>
       </c>
       <c r="N39" t="n">
-        <v>288.3905951612584</v>
+        <v>241.1621858766904</v>
       </c>
       <c r="O39" t="n">
-        <v>350.5984854083566</v>
+        <v>334.0806046107601</v>
       </c>
       <c r="P39" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q39" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="R39" t="n">
-        <v>323.3748499669449</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="S39" t="n">
-        <v>220.4426367374482</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="T39" t="n">
-        <v>117.5104235079515</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="U39" t="n">
-        <v>14.57821027845486</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="V39" t="n">
-        <v>14.57821027845486</v>
+        <v>291.0089326396094</v>
       </c>
       <c r="W39" t="n">
-        <v>14.57821027845486</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="X39" t="n">
-        <v>14.57821027845486</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.57821027845486</v>
+        <v>192.6951040451467</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M40" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.152231287776136</v>
+        <v>228.0493741311612</v>
       </c>
       <c r="C41" t="n">
-        <v>8.152231287776136</v>
+        <v>228.0493741311612</v>
       </c>
       <c r="D41" t="n">
-        <v>8.152231287776136</v>
+        <v>228.0493741311612</v>
       </c>
       <c r="E41" t="n">
-        <v>8.152231287776136</v>
+        <v>228.0493741311612</v>
       </c>
       <c r="F41" t="n">
-        <v>8.152231287776136</v>
+        <v>129.7355455366986</v>
       </c>
       <c r="G41" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="H41" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="I41" t="n">
-        <v>8.152231287776136</v>
+        <v>31.4217169422359</v>
       </c>
       <c r="J41" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K41" t="n">
-        <v>26.37736235377253</v>
+        <v>23.80676326264273</v>
       </c>
       <c r="L41" t="n">
-        <v>85.88901087540833</v>
+        <v>80.58313385421303</v>
       </c>
       <c r="M41" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168673</v>
       </c>
       <c r="N41" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O41" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P41" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q41" t="n">
-        <v>407.6115643888068</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="R41" t="n">
-        <v>316.9488709762661</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="S41" t="n">
-        <v>214.0166577467695</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="T41" t="n">
-        <v>111.0844445172728</v>
+        <v>367.3791100071364</v>
       </c>
       <c r="U41" t="n">
-        <v>8.152231287776136</v>
+        <v>326.3632027256239</v>
       </c>
       <c r="V41" t="n">
-        <v>8.152231287776136</v>
+        <v>326.3632027256239</v>
       </c>
       <c r="W41" t="n">
-        <v>8.152231287776136</v>
+        <v>326.3632027256239</v>
       </c>
       <c r="X41" t="n">
-        <v>8.152231287776136</v>
+        <v>228.0493741311612</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.152231287776136</v>
+        <v>228.0493741311612</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.152231287776136</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="C42" t="n">
-        <v>8.152231287776136</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="D42" t="n">
-        <v>8.152231287776136</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="E42" t="n">
-        <v>8.152231287776136</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="F42" t="n">
-        <v>8.152231287776136</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="G42" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H42" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I42" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J42" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K42" t="n">
-        <v>8.152231287776136</v>
+        <v>30.19753787044273</v>
       </c>
       <c r="L42" t="n">
-        <v>53.70582787517334</v>
+        <v>106.6545453422011</v>
       </c>
       <c r="M42" t="n">
-        <v>154.589690061403</v>
+        <v>203.0119287476339</v>
       </c>
       <c r="N42" t="n">
-        <v>255.4735522476327</v>
+        <v>296.4043425000024</v>
       </c>
       <c r="O42" t="n">
-        <v>350.5984854083566</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="P42" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q42" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="R42" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="S42" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="T42" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="U42" t="n">
-        <v>304.6793511593101</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="V42" t="n">
-        <v>201.7471379298134</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="W42" t="n">
-        <v>98.81492470031678</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="X42" t="n">
-        <v>8.152231287776136</v>
+        <v>302.7279410080694</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.152231287776136</v>
+        <v>302.7279410080694</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V43" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.152231287776136</v>
+        <v>94.38127545068409</v>
       </c>
       <c r="C44" t="n">
-        <v>8.152231287776136</v>
+        <v>94.38127545068409</v>
       </c>
       <c r="D44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J44" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K44" t="n">
-        <v>26.37736235377247</v>
+        <v>23.80676326264285</v>
       </c>
       <c r="L44" t="n">
-        <v>85.8890108754083</v>
+        <v>80.58313385421286</v>
       </c>
       <c r="M44" t="n">
-        <v>183.7766239668948</v>
+        <v>175.4272232168673</v>
       </c>
       <c r="N44" t="n">
-        <v>284.6604861531245</v>
+        <v>271.7846066223001</v>
       </c>
       <c r="O44" t="n">
-        <v>369.6100650431196</v>
+        <v>353.8137694399327</v>
       </c>
       <c r="P44" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q44" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="R44" t="n">
-        <v>407.6115643888068</v>
+        <v>291.0089326396094</v>
       </c>
       <c r="S44" t="n">
-        <v>407.6115643888068</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="T44" t="n">
-        <v>316.9488709762661</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="U44" t="n">
-        <v>214.0166577467695</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="V44" t="n">
-        <v>214.0166577467695</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="W44" t="n">
-        <v>111.0844445172728</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="X44" t="n">
-        <v>8.152231287776136</v>
+        <v>192.6951040451467</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.152231287776136</v>
+        <v>94.38127545068409</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>111.0844445172728</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C45" t="n">
-        <v>111.0844445172728</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D45" t="n">
-        <v>111.0844445172728</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E45" t="n">
-        <v>111.0844445172728</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F45" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G45" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H45" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I45" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J45" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K45" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L45" t="n">
-        <v>86.62287078879909</v>
+        <v>84.24346269643979</v>
       </c>
       <c r="M45" t="n">
-        <v>187.5067329750288</v>
+        <v>144.8048024712576</v>
       </c>
       <c r="N45" t="n">
-        <v>288.3905951612584</v>
+        <v>241.1621858766904</v>
       </c>
       <c r="O45" t="n">
-        <v>383.5155283219823</v>
+        <v>334.0806046107601</v>
       </c>
       <c r="P45" t="n">
-        <v>407.6115643888068</v>
+        <v>389.3227612340721</v>
       </c>
       <c r="Q45" t="n">
-        <v>395.5643620915302</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="R45" t="n">
-        <v>395.5643620915302</v>
+        <v>376.0677080061807</v>
       </c>
       <c r="S45" t="n">
-        <v>395.5643620915302</v>
+        <v>277.753879411718</v>
       </c>
       <c r="T45" t="n">
-        <v>395.5643620915302</v>
+        <v>204.4141124136067</v>
       </c>
       <c r="U45" t="n">
-        <v>395.5643620915302</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="V45" t="n">
-        <v>292.6321488620335</v>
+        <v>106.1002838191441</v>
       </c>
       <c r="W45" t="n">
-        <v>189.6999356325369</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X45" t="n">
-        <v>189.6999356325369</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y45" t="n">
-        <v>189.6999356325369</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="C46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="D46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="E46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="F46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="G46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="H46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="I46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="J46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="K46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="L46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="M46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="N46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="O46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="P46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="R46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="S46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="T46" t="n">
-        <v>9.157426549637908</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="U46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="V46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="W46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="X46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.152231287776136</v>
+        <v>7.786455224681442</v>
       </c>
     </row>
   </sheetData>
@@ -23044,13 +23044,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L8" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
         <v>4.586202945486093</v>
@@ -23059,13 +23059,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R8" t="n">
         <v>134.8218408634681</v>
@@ -23126,7 +23126,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R9" t="n">
         <v>102.9682853879423</v>
@@ -23205,16 +23205,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
         <v>56.93882853040725</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>290.6777502616532</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5571995917977</v>
+        <v>349.5519082327678</v>
       </c>
       <c r="H11" t="n">
         <v>321.5983118583879</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>33.80723145564642</v>
       </c>
       <c r="R11" t="n">
-        <v>41.93209987825851</v>
+        <v>105.9373912372883</v>
       </c>
       <c r="S11" t="n">
-        <v>105.2383327991642</v>
+        <v>169.243624158194</v>
       </c>
       <c r="T11" t="n">
         <v>151.449465945692</v>
       </c>
       <c r="U11" t="n">
-        <v>228.6373807005824</v>
+        <v>194.8301492449361</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23360,7 +23360,7 @@
         <v>67.3668131728592</v>
       </c>
       <c r="J12" t="n">
-        <v>38.60029354266159</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.68768980174873</v>
+        <v>87.69298116077856</v>
       </c>
       <c r="S12" t="n">
-        <v>90.33025866035689</v>
+        <v>154.3355500193867</v>
       </c>
       <c r="T12" t="n">
-        <v>132.3949830792131</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U12" t="n">
-        <v>190.2685757367511</v>
+        <v>164.8635779203828</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>168.7952957903954</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>141.6774044182745</v>
       </c>
     </row>
     <row r="13">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743783</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5571995917977</v>
+        <v>320.7982251355235</v>
       </c>
       <c r="H14" t="n">
-        <v>321.5983118583879</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I14" t="n">
-        <v>143.1810387809403</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J14" t="n">
-        <v>32.89555520582749</v>
+        <v>24.91528667358034</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>41.93209987825851</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S14" t="n">
-        <v>105.2383327991642</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T14" t="n">
-        <v>151.449465945692</v>
+        <v>122.378212846325</v>
       </c>
       <c r="U14" t="n">
-        <v>228.6373807005824</v>
+        <v>193.2327717109777</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>139.2792507202649</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553643</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629862</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.4095720375306</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H15" t="n">
-        <v>103.2155005226921</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I15" t="n">
-        <v>67.3668131728592</v>
+        <v>65.63472101604999</v>
       </c>
       <c r="J15" t="n">
-        <v>38.60029354266159</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,22 +23618,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.76449804307808</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.68768980174873</v>
+        <v>84.5694784127797</v>
       </c>
       <c r="S15" t="n">
-        <v>154.3355500193867</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T15" t="n">
-        <v>132.3949830792131</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U15" t="n">
-        <v>161.8746469636766</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V15" t="n">
-        <v>176.4247265203918</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>113.017746488202</v>
       </c>
     </row>
     <row r="16">
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2079911383388</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H16" t="n">
-        <v>155.2656954230999</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I16" t="n">
-        <v>131.9038837258314</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J16" t="n">
-        <v>71.63815427691216</v>
+        <v>68.65627904547947</v>
       </c>
       <c r="K16" t="n">
-        <v>38.04426314204819</v>
+        <v>33.14412614092826</v>
       </c>
       <c r="L16" t="n">
-        <v>18.47568217357946</v>
+        <v>12.20519387026837</v>
       </c>
       <c r="M16" t="n">
-        <v>16.18882140643099</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N16" t="n">
-        <v>7.866992562688111</v>
+        <v>1.412844977410188</v>
       </c>
       <c r="O16" t="n">
-        <v>27.78471257524502</v>
+        <v>21.82326264618298</v>
       </c>
       <c r="P16" t="n">
-        <v>43.02913786299791</v>
+        <v>37.92808757638605</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.94041530648843</v>
+        <v>82.40871249605684</v>
       </c>
       <c r="R16" t="n">
-        <v>142.087393770683</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S16" t="n">
-        <v>210.3712487826992</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T16" t="n">
-        <v>224.6000943059506</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2763209081207</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>307.3071756213895</v>
       </c>
       <c r="D17" t="n">
-        <v>273.0637542868417</v>
+        <v>262.0180923315806</v>
       </c>
       <c r="E17" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>413.4631744246258</v>
       </c>
       <c r="H17" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I17" t="n">
         <v>139.5561335235496</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>100.0310828299331</v>
@@ -23788,7 +23788,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U17" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893667</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669513</v>
       </c>
     </row>
     <row r="18">
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884203</v>
       </c>
       <c r="H18" t="n">
-        <v>10.06468283495369</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.63472101604999</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.34273879062268</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>84.84615543201357</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T18" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8766285924705</v>
+        <v>136.1618703823066</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23989,10 +23989,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I20" t="n">
-        <v>82.85213286328872</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>24.91528667358034</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>100.0310828299331</v>
       </c>
       <c r="S20" t="n">
-        <v>74.43607637216444</v>
+        <v>85.48173832742548</v>
       </c>
       <c r="T20" t="n">
         <v>122.378212846325</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810326</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553647</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884203</v>
       </c>
       <c r="H21" t="n">
         <v>102.729632124056</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.34273879062268</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>84.5694784127797</v>
@@ -24104,19 +24104,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U21" t="n">
-        <v>144.2573412586291</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V21" t="n">
-        <v>140.135637860323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>159.0300338718173</v>
+        <v>184.418434617701</v>
       </c>
       <c r="X21" t="n">
-        <v>113.1080359143752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882021</v>
       </c>
     </row>
     <row r="22">
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>280.0274789750601</v>
+        <v>284.5996797637438</v>
       </c>
       <c r="F23" t="n">
-        <v>304.9731546445097</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4278000675836</v>
+        <v>316.1146178432826</v>
       </c>
       <c r="H23" t="n">
-        <v>218.3702078838297</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I23" t="n">
-        <v>48.43629714526524</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J23" t="n">
-        <v>21.91293233757048</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>19.83353858518305</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R23" t="n">
-        <v>97.80899837438137</v>
+        <v>98.90879056957441</v>
       </c>
       <c r="S23" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T23" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1956579120324</v>
+        <v>165.4681865350271</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>230.4215681616169</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.63029255266565</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H24" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I24" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J24" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,31 +24329,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.92673027430376</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.39434727764328</v>
+        <v>11.36959402964109</v>
       </c>
       <c r="S24" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T24" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U24" t="n">
-        <v>136.1193169200013</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V24" t="n">
-        <v>130.8976960522236</v>
+        <v>135.4698968409073</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>103.8700941062758</v>
+        <v>108.4422948949595</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>108.3520054687863</v>
       </c>
     </row>
     <row r="25">
@@ -24372,55 +24372,55 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.438819337326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H25" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I25" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J25" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K25" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L25" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M25" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O25" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P25" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R25" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S25" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.8309505662789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>301.2682344619312</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>257.352351312165</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>284.5996797637438</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>309.5453554331934</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4278000675836</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H26" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I26" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J26" t="n">
-        <v>21.91293233757048</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.83353858518305</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>8.05293189596614</v>
+        <v>98.90879056957441</v>
       </c>
       <c r="S26" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T26" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>247.3380776202113</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>267.8282095812673</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>70.80560789111405</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H27" t="n">
-        <v>12.79077115852782</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I27" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J27" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,31 +24566,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.92673027430376</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.39434727764328</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S27" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T27" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8753833984165</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>135.4698968409073</v>
       </c>
       <c r="W27" t="n">
-        <v>149.7920920637179</v>
+        <v>154.3642928524016</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>108.4422948949595</v>
       </c>
       <c r="Y27" t="n">
-        <v>103.7798046801027</v>
+        <v>133.0763264491742</v>
       </c>
     </row>
     <row r="28">
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H28" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I28" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J28" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K28" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L28" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M28" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O28" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P28" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.0848641183626</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R28" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S28" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>292.9777751850654</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>263.3700006738059</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>304.9731546445097</v>
+        <v>309.5453554331934</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4278000675836</v>
+        <v>316.1146178432826</v>
       </c>
       <c r="H29" t="n">
-        <v>320.2730989810314</v>
+        <v>279.8466554398209</v>
       </c>
       <c r="I29" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J29" t="n">
-        <v>21.91293233757048</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.83353858518305</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>97.80899837438137</v>
+        <v>98.90879056957441</v>
       </c>
       <c r="S29" t="n">
-        <v>166.2949325001678</v>
+        <v>69.3632076607435</v>
       </c>
       <c r="T29" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U29" t="n">
-        <v>149.2927668148307</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>166.3467797875438</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H30" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I30" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J30" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.92673027430376</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S30" t="n">
-        <v>51.14665196435246</v>
+        <v>55.8928527600538</v>
       </c>
       <c r="T30" t="n">
-        <v>94.2183183128835</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8753833984165</v>
+        <v>153.2696303631094</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>135.4698968409073</v>
       </c>
       <c r="W30" t="n">
-        <v>149.7920920637179</v>
+        <v>154.3642928524016</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H31" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I31" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J31" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K31" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L31" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M31" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O31" t="n">
-        <v>18.5852894157285</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P31" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R31" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S31" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>264.9269751422677</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4278000675836</v>
+        <v>316.1146178432826</v>
       </c>
       <c r="H32" t="n">
-        <v>218.3702078838297</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I32" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J32" t="n">
-        <v>21.91293233757048</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>19.83353858518305</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>97.80899837438137</v>
+        <v>98.90879056957441</v>
       </c>
       <c r="S32" t="n">
-        <v>166.2949325001678</v>
+        <v>69.3632076607435</v>
       </c>
       <c r="T32" t="n">
-        <v>112.9854197902734</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1956579120324</v>
+        <v>153.8663682502517</v>
       </c>
       <c r="V32" t="n">
-        <v>225.8493673729332</v>
+        <v>287.1465102614375</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>70.80560789111405</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>55.74218935819925</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>55.31314591496864</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H33" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I33" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J33" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,31 +25040,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.92673027430376</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R33" t="n">
-        <v>83.39434727764328</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S33" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T33" t="n">
-        <v>94.2183183128835</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8753833984165</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>135.4698968409073</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>154.3642928524016</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>108.4422948949595</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>119.9538237535617</v>
       </c>
     </row>
     <row r="34">
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H34" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I34" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J34" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K34" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L34" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M34" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O34" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P34" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R34" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S34" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U34" t="n">
-        <v>285.2780115531416</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,25 +25159,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>252.7801505234813</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>280.0274789750601</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.6717335891684</v>
+        <v>316.1146178432826</v>
       </c>
       <c r="H35" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I35" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J35" t="n">
-        <v>21.91293233757048</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.83353858518305</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>97.80899837438137</v>
+        <v>1.578100261056392</v>
       </c>
       <c r="S35" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T35" t="n">
-        <v>112.9854197902734</v>
+        <v>150.9602952170585</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>288.9072483475356</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.63029255266565</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>70.80560789111405</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>57.68899908622352</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H36" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I36" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J36" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.92673027430376</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.39434727764328</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S36" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T36" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8753833984165</v>
+        <v>128.5453093827215</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>135.4698968409073</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>154.3642928524016</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>133.1666158753473</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.7798046801027</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H37" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I37" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J37" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K37" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L37" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M37" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O37" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P37" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R37" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S37" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3569440807293</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>280.8309505662789</v>
+        <v>342.1280934547832</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>284.5996797637438</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>309.5453554331934</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4278000675836</v>
+        <v>316.1146178432826</v>
       </c>
       <c r="H38" t="n">
-        <v>218.3702078838297</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I38" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J38" t="n">
-        <v>21.91293233757048</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>19.83353858518305</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.05293189596614</v>
+        <v>98.90879056957441</v>
       </c>
       <c r="S38" t="n">
-        <v>64.39204140296607</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T38" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25478,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>104.8603646124536</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.340337188325</v>
+        <v>39.01901453071609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I39" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J39" t="n">
-        <v>25.6973994000546</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.92673027430376</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S39" t="n">
-        <v>51.14665196435246</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T39" t="n">
-        <v>94.2183183128835</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U39" t="n">
-        <v>123.9724923012149</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>135.4698968409073</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>154.3642928524016</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>166.2516777893847</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H40" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I40" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J40" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K40" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L40" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M40" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O40" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P40" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R40" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S40" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>309.5453554331934</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4278000675836</v>
+        <v>316.1146178432826</v>
       </c>
       <c r="H41" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I41" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J41" t="n">
-        <v>21.91293233757048</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.83353858518305</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.05293189596614</v>
+        <v>98.90879056957441</v>
       </c>
       <c r="S41" t="n">
-        <v>64.39204140296607</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T41" t="n">
-        <v>112.9854197902734</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U41" t="n">
-        <v>149.2927668148307</v>
+        <v>210.5913103500723</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>272.400410369951</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>75.37780867979772</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>47.73852208486586</v>
       </c>
       <c r="G42" t="n">
-        <v>136.340337188325</v>
+        <v>39.01901453071609</v>
       </c>
       <c r="H42" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I42" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J42" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,28 +25751,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.92673027430376</v>
+        <v>13.12250269561247</v>
       </c>
       <c r="R42" t="n">
-        <v>83.39434727764328</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S42" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U42" t="n">
-        <v>123.9724923012149</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V42" t="n">
-        <v>130.8976960522236</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>149.7920920637179</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>116.0169187250622</v>
+        <v>120.0441131797348</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25800,55 +25800,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H43" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J43" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K43" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L43" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M43" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O43" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P43" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R43" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S43" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>285.5278550273479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>268.9541695969403</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4278000675836</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H44" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I44" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404545</v>
       </c>
       <c r="J44" t="n">
-        <v>21.91293233757048</v>
+        <v>23.39890910037892</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.83353858518305</v>
+        <v>21.72421471466632</v>
       </c>
       <c r="R44" t="n">
-        <v>97.80899837438137</v>
+        <v>1.578100261056392</v>
       </c>
       <c r="S44" t="n">
-        <v>166.2949325001678</v>
+        <v>69.3632076607435</v>
       </c>
       <c r="T44" t="n">
-        <v>125.1322444090599</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U44" t="n">
-        <v>149.2927668148307</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>247.3380776202113</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>267.8282095812673</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>288.9072483475356</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88.7038474457559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,19 +25955,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>43.16632129618219</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H45" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I45" t="n">
-        <v>64.98306946117427</v>
+        <v>65.30559603852697</v>
       </c>
       <c r="J45" t="n">
-        <v>32.05911860082654</v>
+        <v>32.94415618079529</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.39434727764328</v>
+        <v>83.97596335777129</v>
       </c>
       <c r="S45" t="n">
-        <v>153.0495430615541</v>
+        <v>55.8928527600538</v>
       </c>
       <c r="T45" t="n">
-        <v>196.1212094100852</v>
+        <v>123.5525982889088</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8753833984165</v>
+        <v>128.5453093827215</v>
       </c>
       <c r="V45" t="n">
-        <v>130.8976960522236</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>149.7920920637179</v>
+        <v>154.3642928524016</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H46" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J46" t="n">
-        <v>67.53443132890754</v>
+        <v>68.08967546456512</v>
       </c>
       <c r="K46" t="n">
-        <v>31.30058572459943</v>
+        <v>32.21302240374357</v>
       </c>
       <c r="L46" t="n">
-        <v>9.846096846118002</v>
+        <v>11.0137016544688</v>
       </c>
       <c r="M46" t="n">
-        <v>7.090133635768296</v>
+        <v>8.321209195899939</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.1864545855455333</v>
       </c>
       <c r="O46" t="n">
-        <v>19.58043272497166</v>
+        <v>20.69049262225906</v>
       </c>
       <c r="P46" t="n">
-        <v>36.00895911794795</v>
+        <v>36.95880712885042</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.08000742760575</v>
+        <v>81.7376329558997</v>
       </c>
       <c r="R46" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S46" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U46" t="n">
-        <v>285.2780115531417</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358051.8747375344</v>
+        <v>383142.0922340971</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>383142.0922340971</v>
+        <v>383142.0922340969</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>391557.180909374</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>391557.1809093741</v>
+        <v>387392.583611345</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>391557.1809093741</v>
+        <v>387392.583611345</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>391557.180909374</v>
+        <v>387392.583611345</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>391557.1809093741</v>
+        <v>387392.583611345</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>391557.180909374</v>
+        <v>387392.583611345</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391557.180909374</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391557.180909374</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>66735.59833537065</v>
       </c>
       <c r="E2" t="n">
-        <v>89512.96868438354</v>
+        <v>89512.96868438351</v>
       </c>
       <c r="F2" t="n">
-        <v>89512.96868438354</v>
+        <v>95785.52305852415</v>
       </c>
       <c r="G2" t="n">
         <v>95785.52305852411</v>
       </c>
       <c r="H2" t="n">
-        <v>95785.52305852412</v>
+        <v>95785.52305852409</v>
       </c>
       <c r="I2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.1459028362</v>
       </c>
       <c r="J2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.14590283619</v>
       </c>
       <c r="K2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.14590283619</v>
       </c>
       <c r="L2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.14590283619</v>
       </c>
       <c r="M2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.1459028362</v>
       </c>
       <c r="N2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.14590283617</v>
       </c>
       <c r="O2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.14590283619</v>
       </c>
       <c r="P2" t="n">
-        <v>97889.29522734342</v>
+        <v>96848.14590283619</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>111004.8835288966</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26699.26581026799</v>
       </c>
       <c r="G3" t="n">
-        <v>26039.63944955218</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9080.280680978656</v>
+        <v>4586.112244602527</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>15950.37462783567</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7019.52403783887</v>
       </c>
       <c r="O3" t="n">
-        <v>6896.975340529867</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>46.37862202960973</v>
       </c>
       <c r="F4" t="n">
-        <v>46.37862202960973</v>
+        <v>67.14558386063679</v>
       </c>
       <c r="G4" t="n">
+        <v>67.14558386063678</v>
+      </c>
+      <c r="H4" t="n">
         <v>67.14558386063676</v>
       </c>
-      <c r="H4" t="n">
-        <v>67.14558386063679</v>
-      </c>
       <c r="I4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052368</v>
       </c>
       <c r="J4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052369</v>
       </c>
       <c r="K4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052369</v>
       </c>
       <c r="L4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052369</v>
       </c>
       <c r="M4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052369</v>
       </c>
       <c r="N4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052369</v>
       </c>
       <c r="O4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052369</v>
       </c>
       <c r="P4" t="n">
-        <v>73.87600503728848</v>
+        <v>70.52640808052368</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>13357.13748840697</v>
       </c>
       <c r="F5" t="n">
-        <v>13357.13748840697</v>
+        <v>15609.51966583623</v>
       </c>
       <c r="G5" t="n">
         <v>15609.51966583623</v>
@@ -26490,28 +26490,28 @@
         <v>15609.51966583623</v>
       </c>
       <c r="I5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="J5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="K5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="L5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="M5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="N5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="O5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
       <c r="P5" t="n">
-        <v>16363.01282241923</v>
+        <v>15990.08105077979</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282047.988048441</v>
+        <v>-297807.2038425216</v>
       </c>
       <c r="C6" t="n">
-        <v>26135.89577211333</v>
+        <v>10376.67997803272</v>
       </c>
       <c r="D6" t="n">
-        <v>26135.89577211333</v>
+        <v>10376.67997803272</v>
       </c>
       <c r="E6" t="n">
-        <v>-34895.43095494962</v>
+        <v>-49027.69172410078</v>
       </c>
       <c r="F6" t="n">
-        <v>76109.45257394695</v>
+        <v>39725.37082756107</v>
       </c>
       <c r="G6" t="n">
-        <v>54069.21835927507</v>
+        <v>66424.63663782904</v>
       </c>
       <c r="H6" t="n">
-        <v>80108.85780882726</v>
+        <v>66424.63663782901</v>
       </c>
       <c r="I6" t="n">
-        <v>72372.12571890824</v>
+        <v>62593.10666011172</v>
       </c>
       <c r="J6" t="n">
-        <v>81452.4063998869</v>
+        <v>67179.21890471423</v>
       </c>
       <c r="K6" t="n">
-        <v>81452.4063998869</v>
+        <v>67179.21890471423</v>
       </c>
       <c r="L6" t="n">
-        <v>81452.4063998869</v>
+        <v>67179.21890471423</v>
       </c>
       <c r="M6" t="n">
-        <v>65502.03177205122</v>
+        <v>51228.84427687858</v>
       </c>
       <c r="N6" t="n">
-        <v>81452.4063998869</v>
+        <v>60159.69486687535</v>
       </c>
       <c r="O6" t="n">
-        <v>74555.43105935703</v>
+        <v>67179.21890471423</v>
       </c>
       <c r="P6" t="n">
-        <v>81452.4063998869</v>
+        <v>67179.21890471423</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>434.2025584301815</v>
       </c>
       <c r="F3" t="n">
-        <v>434.2025584301815</v>
+        <v>457.5913187641656</v>
       </c>
       <c r="G3" t="n">
         <v>457.5913187641656</v>
@@ -26758,28 +26758,28 @@
         <v>457.5913187641656</v>
       </c>
       <c r="I3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="J3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="K3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="L3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="M3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="N3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3906900784112</v>
+        <v>462.0355541294447</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>64.00529135902983</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="G4" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="H4" t="n">
-        <v>92.66494928910232</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="K4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="L4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="M4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
     </row>
   </sheetData>
@@ -26971,16 +26971,16 @@
         <v>114.3813399321389</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23.38876033398407</v>
       </c>
       <c r="G3" t="n">
-        <v>23.38876033398407</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.799371314245604</v>
+        <v>4.444235365279098</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.65965793007251</v>
       </c>
       <c r="G4" t="n">
-        <v>28.65965793007246</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.237941808099364</v>
+        <v>4.665741019415734</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>28.65965793007251</v>
       </c>
       <c r="O4" t="n">
-        <v>28.65965793007246</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>28.65965793007251</v>
       </c>
       <c r="O4" t="n">
-        <v>28.65965793007246</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I8" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
         <v>109.1233211798925</v>
@@ -31530,7 +31530,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L8" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M8" t="n">
         <v>225.7600302817866</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H9" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I9" t="n">
         <v>23.68487325669467</v>
@@ -31621,13 +31621,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R9" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S9" t="n">
         <v>12.77776283338877</v>
@@ -31636,7 +31636,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
         <v>5.127625437558785</v>
@@ -31685,16 +31685,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L10" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M10" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N10" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
         <v>81.51770992143554</v>
@@ -31703,7 +31703,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R10" t="n">
         <v>25.93173355231669</v>
@@ -31852,13 +31852,13 @@
         <v>206.1393252810481</v>
       </c>
       <c r="N12" t="n">
-        <v>195.3470034423631</v>
+        <v>179.7907134940135</v>
       </c>
       <c r="O12" t="n">
-        <v>146.6770967700847</v>
+        <v>206.6015358034743</v>
       </c>
       <c r="P12" t="n">
-        <v>178.3425564993702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>119.2172760429434</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.745537923337412</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87649025737927</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I14" t="n">
-        <v>67.29485078946563</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J14" t="n">
-        <v>148.1503493208588</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K14" t="n">
-        <v>222.0389696157315</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L14" t="n">
-        <v>275.4589758370689</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M14" t="n">
-        <v>294.3515245863026</v>
+        <v>323.0111825163751</v>
       </c>
       <c r="N14" t="n">
-        <v>293.4183549556208</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O14" t="n">
-        <v>294.1035027807166</v>
+        <v>309.9456856660334</v>
       </c>
       <c r="P14" t="n">
-        <v>251.0105352983242</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.4984584188031</v>
+        <v>198.6521186902263</v>
       </c>
       <c r="R14" t="n">
-        <v>109.6481465768438</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S14" t="n">
-        <v>39.77644542805131</v>
+        <v>41.9190439249786</v>
       </c>
       <c r="T14" t="n">
-        <v>7.641092259409524</v>
+        <v>8.052687428704058</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1396430338669929</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9339451256800131</v>
+        <v>0.9842530252663184</v>
       </c>
       <c r="H15" t="n">
-        <v>9.019943713804338</v>
+        <v>9.505812112440498</v>
       </c>
       <c r="I15" t="n">
-        <v>32.1555668271408</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J15" t="n">
-        <v>88.2373331240051</v>
+        <v>92.99032639149898</v>
       </c>
       <c r="K15" t="n">
-        <v>150.811656544566</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L15" t="n">
-        <v>202.559671138904</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M15" t="n">
-        <v>206.1393252810481</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N15" t="n">
-        <v>135.4225644089735</v>
+        <v>217.7623764228819</v>
       </c>
       <c r="O15" t="n">
-        <v>206.6015358034743</v>
+        <v>234.1788327264122</v>
       </c>
       <c r="P15" t="n">
-        <v>178.3425564993702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.2172760429434</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R15" t="n">
-        <v>57.98652280318539</v>
+        <v>61.11002555118425</v>
       </c>
       <c r="S15" t="n">
-        <v>17.34762108445111</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T15" t="n">
-        <v>3.764454256578648</v>
+        <v>3.967230395700642</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06144375826842194</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7829882201199994</v>
+        <v>0.8251646731812821</v>
       </c>
       <c r="H16" t="n">
-        <v>6.961477084339636</v>
+        <v>7.336464094284495</v>
       </c>
       <c r="I16" t="n">
-        <v>23.5465912014269</v>
+        <v>24.81495217166984</v>
       </c>
       <c r="J16" t="n">
-        <v>55.35726716248395</v>
+        <v>58.33914239391664</v>
       </c>
       <c r="K16" t="n">
-        <v>90.96899502848719</v>
+        <v>95.86913202960712</v>
       </c>
       <c r="L16" t="n">
-        <v>116.4089941076588</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M16" t="n">
-        <v>122.7369625411741</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N16" t="n">
-        <v>119.8185519025451</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O16" t="n">
-        <v>110.6718258765978</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P16" t="n">
-        <v>94.6988661861497</v>
+        <v>99.79991647276157</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.56458632295741</v>
+        <v>69.09628913338901</v>
       </c>
       <c r="R16" t="n">
-        <v>35.20599760648651</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S16" t="n">
-        <v>13.64534925427307</v>
+        <v>14.38036980444107</v>
       </c>
       <c r="T16" t="n">
-        <v>3.345495122330906</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04270844837018183</v>
+        <v>0.04500898217352453</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>92.99032639149898</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L18" t="n">
         <v>213.7080965605662</v>
@@ -32326,13 +32326,13 @@
         <v>234.7989832111206</v>
       </c>
       <c r="N18" t="n">
-        <v>184.8814651136648</v>
+        <v>217.7623764228818</v>
       </c>
       <c r="O18" t="n">
         <v>234.1788327264122</v>
       </c>
       <c r="P18" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>125.6390352953988</v>
@@ -32481,7 +32481,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M20" t="n">
-        <v>323.0111825163751</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N20" t="n">
         <v>322.0780128856932</v>
@@ -32557,19 +32557,19 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L21" t="n">
-        <v>153.4890601918122</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
         <v>234.7989832111206</v>
       </c>
       <c r="N21" t="n">
-        <v>224.0066613724356</v>
+        <v>217.7623764228818</v>
       </c>
       <c r="O21" t="n">
         <v>234.1788327264122</v>
       </c>
       <c r="P21" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>125.6390352953988</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H23" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I23" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J23" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K23" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L23" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M23" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N23" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O23" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P23" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R23" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S23" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T23" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U23" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H24" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I24" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J24" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K24" t="n">
-        <v>161.991566383178</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L24" t="n">
-        <v>217.8176520031297</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M24" t="n">
-        <v>186.6372593138094</v>
+        <v>236.4698053890572</v>
       </c>
       <c r="N24" t="n">
-        <v>233.244603180535</v>
+        <v>228.6724023918513</v>
       </c>
       <c r="O24" t="n">
-        <v>238.6820355158827</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P24" t="n">
-        <v>191.5633760814516</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R24" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S24" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T24" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H25" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I25" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J25" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K25" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L25" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M25" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O25" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R25" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S25" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T25" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H26" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I26" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J26" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K26" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L26" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M26" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N26" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O26" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P26" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R26" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S26" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T26" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U26" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H27" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I27" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J27" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L27" t="n">
-        <v>184.568113706538</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M27" t="n">
-        <v>244.03692501922</v>
+        <v>239.4647242305363</v>
       </c>
       <c r="N27" t="n">
-        <v>233.244603180535</v>
+        <v>169.8773253450065</v>
       </c>
       <c r="O27" t="n">
-        <v>238.6820355158827</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P27" t="n">
-        <v>191.5633760814516</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R27" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S27" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T27" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H28" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I28" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J28" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K28" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L28" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M28" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O28" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R28" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S28" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T28" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H29" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I29" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J29" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K29" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L29" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M29" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N29" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O29" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P29" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R29" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S29" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T29" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U29" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H30" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I30" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J30" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L30" t="n">
-        <v>184.568113706538</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M30" t="n">
-        <v>244.03692501922</v>
+        <v>239.4647242305363</v>
       </c>
       <c r="N30" t="n">
-        <v>233.244603180535</v>
+        <v>225.6774835503722</v>
       </c>
       <c r="O30" t="n">
-        <v>238.6820355158827</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P30" t="n">
-        <v>191.5633760814516</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R30" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S30" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T30" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H31" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I31" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J31" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K31" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L31" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M31" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O31" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R31" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S31" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T31" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H32" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I32" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J32" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K32" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L32" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M32" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N32" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O32" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P32" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R32" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S32" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T32" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U32" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H33" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I33" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J33" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>217.8176520031297</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M33" t="n">
-        <v>244.03692501922</v>
+        <v>239.4647242305363</v>
       </c>
       <c r="N33" t="n">
-        <v>233.244603180535</v>
+        <v>228.6724023918513</v>
       </c>
       <c r="O33" t="n">
-        <v>205.4324972192911</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P33" t="n">
-        <v>191.5633760814516</v>
+        <v>153.6169457907918</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R33" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S33" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T33" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H34" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I34" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J34" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K34" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L34" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M34" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O34" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R34" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S34" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T34" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H35" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I35" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J35" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K35" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L35" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M35" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N35" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O35" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P35" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R35" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S35" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T35" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U35" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H36" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I36" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J36" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L36" t="n">
-        <v>217.8176520031297</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M36" t="n">
-        <v>210.7873867226284</v>
+        <v>239.4647242305363</v>
       </c>
       <c r="N36" t="n">
-        <v>233.244603180535</v>
+        <v>225.6774835503722</v>
       </c>
       <c r="O36" t="n">
-        <v>238.6820355158827</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P36" t="n">
-        <v>191.5633760814516</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R36" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S36" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T36" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H37" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I37" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J37" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K37" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L37" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M37" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O37" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R37" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S37" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T37" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H38" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I38" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J38" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K38" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L38" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M38" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N38" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O38" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P38" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R38" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S38" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T38" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U38" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H39" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I39" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J39" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L39" t="n">
-        <v>217.8176520031297</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M39" t="n">
-        <v>244.03692501922</v>
+        <v>239.4647242305363</v>
       </c>
       <c r="N39" t="n">
-        <v>233.244603180535</v>
+        <v>169.8773253450065</v>
       </c>
       <c r="O39" t="n">
-        <v>205.4324972192911</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P39" t="n">
-        <v>191.5633760814516</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R39" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S39" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T39" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H40" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I40" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J40" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K40" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L40" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M40" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O40" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R40" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S40" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T40" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H41" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I41" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J41" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K41" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L41" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M41" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N41" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O41" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P41" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R41" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S41" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T41" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U41" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H42" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I42" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J42" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L42" t="n">
-        <v>184.568113706538</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M42" t="n">
-        <v>244.03692501922</v>
+        <v>239.4647242305363</v>
       </c>
       <c r="N42" t="n">
-        <v>233.244603180535</v>
+        <v>225.6774835503722</v>
       </c>
       <c r="O42" t="n">
-        <v>238.6820355158827</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P42" t="n">
-        <v>191.5633760814516</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R42" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S42" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T42" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H43" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I43" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J43" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K43" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L43" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M43" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O43" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R43" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S43" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T43" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.8749374475514</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H44" t="n">
-        <v>19.20170313473578</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I44" t="n">
-        <v>72.28352594672543</v>
+        <v>71.60854552995144</v>
       </c>
       <c r="J44" t="n">
-        <v>159.1329721891158</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K44" t="n">
-        <v>238.4990743439666</v>
+        <v>236.2719803762547</v>
       </c>
       <c r="L44" t="n">
-        <v>295.8791912544679</v>
+        <v>293.1162842544014</v>
       </c>
       <c r="M44" t="n">
-        <v>329.2226100873601</v>
+        <v>326.1483436946004</v>
       </c>
       <c r="N44" t="n">
-        <v>331.3159546937926</v>
+        <v>326.7437539051089</v>
       </c>
       <c r="O44" t="n">
-        <v>315.9058668661262</v>
+        <v>312.9559516415175</v>
       </c>
       <c r="P44" t="n">
-        <v>269.618348629701</v>
+        <v>267.1006642341982</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.4721512892664</v>
+        <v>200.5814751597832</v>
       </c>
       <c r="R44" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445577</v>
       </c>
       <c r="S44" t="n">
-        <v>42.72513708607758</v>
+        <v>42.32617161698381</v>
       </c>
       <c r="T44" t="n">
-        <v>8.207538676656259</v>
+        <v>8.130897037996558</v>
       </c>
       <c r="U44" t="n">
-        <v>0.149994995804112</v>
+        <v>0.1485943490667559</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003179974885639</v>
+        <v>0.9938123239765414</v>
       </c>
       <c r="H45" t="n">
-        <v>9.688606599553411</v>
+        <v>9.598134813141861</v>
       </c>
       <c r="I45" t="n">
-        <v>34.53931053882574</v>
+        <v>34.21678396147303</v>
       </c>
       <c r="J45" t="n">
-        <v>94.77850806584016</v>
+        <v>93.8934704858714</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>217.8176520031297</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M45" t="n">
-        <v>244.03692501922</v>
+        <v>203.3071044016322</v>
       </c>
       <c r="N45" t="n">
-        <v>233.244603180535</v>
+        <v>228.6724023918513</v>
       </c>
       <c r="O45" t="n">
-        <v>238.6820355158827</v>
+        <v>236.4532330647168</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3138377848599</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.0550438117178</v>
+        <v>126.859271390409</v>
       </c>
       <c r="R45" t="n">
-        <v>62.28515668632068</v>
+        <v>61.70354060619265</v>
       </c>
       <c r="S45" t="n">
-        <v>18.63362804228368</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T45" t="n">
-        <v>4.043519284736412</v>
+        <v>4.005761077782637</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06599868255826576</v>
+        <v>0.06538238973529881</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8410323919446758</v>
+        <v>0.8331788681022771</v>
       </c>
       <c r="H46" t="n">
-        <v>7.477542539289941</v>
+        <v>7.407717572763888</v>
       </c>
       <c r="I46" t="n">
-        <v>25.29213775048171</v>
+        <v>25.0559608698394</v>
       </c>
       <c r="J46" t="n">
-        <v>59.46099011048857</v>
+        <v>58.90574597483099</v>
       </c>
       <c r="K46" t="n">
-        <v>97.71267244593595</v>
+        <v>96.80023576679181</v>
       </c>
       <c r="L46" t="n">
-        <v>125.0385794351203</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M46" t="n">
-        <v>131.8356503118368</v>
+        <v>130.6045747517051</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7008932145885</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O46" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295837</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7190449311997</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.42499420184009</v>
+        <v>69.76736867354614</v>
       </c>
       <c r="R46" t="n">
-        <v>37.81587464143968</v>
+        <v>37.46275165121693</v>
       </c>
       <c r="S46" t="n">
-        <v>14.65690086689039</v>
+        <v>14.52003536501877</v>
       </c>
       <c r="T46" t="n">
-        <v>3.593502038309068</v>
+        <v>3.559946072800638</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04587449410607328</v>
+        <v>0.04544612007830608</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N12" t="n">
+        <v>48.44900141068022</v>
+      </c>
+      <c r="O12" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="O12" t="n">
-        <v>4.080852325640222</v>
-      </c>
       <c r="P12" t="n">
-        <v>44.36814908503999</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.949118570750926</v>
+        <v>13.90947242938017</v>
       </c>
       <c r="L14" t="n">
-        <v>39.69256086708162</v>
+        <v>54.53043743554468</v>
       </c>
       <c r="M14" t="n">
-        <v>64.00529135902983</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="N14" t="n">
-        <v>64.00529135902983</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="O14" t="n">
-        <v>64.00529135902983</v>
+        <v>79.84747424434667</v>
       </c>
       <c r="P14" t="n">
-        <v>19.77753954305464</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.97021757020698</v>
+        <v>21.09384010998332</v>
       </c>
       <c r="L15" t="n">
-        <v>64.00529135902983</v>
+        <v>75.15371678069204</v>
       </c>
       <c r="M15" t="n">
-        <v>64.00529135902983</v>
+        <v>92.66494928910232</v>
       </c>
       <c r="N15" t="n">
-        <v>4.080852325640222</v>
+        <v>86.42066433954862</v>
       </c>
       <c r="O15" t="n">
-        <v>64.00529135902983</v>
+        <v>91.58258828196773</v>
       </c>
       <c r="P15" t="n">
-        <v>44.36814908503999</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.09384010998332</v>
       </c>
       <c r="L18" t="n">
         <v>75.15371678069204</v>
@@ -35974,13 +35974,13 @@
         <v>92.66494928910228</v>
       </c>
       <c r="N18" t="n">
-        <v>53.53975303033148</v>
+        <v>86.42066433954851</v>
       </c>
       <c r="O18" t="n">
         <v>91.58258828196773</v>
       </c>
       <c r="P18" t="n">
-        <v>53.97475141920035</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>54.53043743554468</v>
       </c>
       <c r="M20" t="n">
-        <v>92.66494928910232</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N20" t="n">
-        <v>92.66494928910232</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="O20" t="n">
         <v>79.84747424434667</v>
@@ -36205,19 +36205,19 @@
         <v>21.09384010998332</v>
       </c>
       <c r="L21" t="n">
-        <v>14.93468041193802</v>
+        <v>75.15371678069204</v>
       </c>
       <c r="M21" t="n">
-        <v>92.66494928910232</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N21" t="n">
-        <v>92.66494928910232</v>
+        <v>86.42066433954851</v>
       </c>
       <c r="O21" t="n">
         <v>91.58258828196773</v>
       </c>
       <c r="P21" t="n">
-        <v>53.97475141920035</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L23" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M23" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N23" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O23" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P23" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.15012740881897</v>
+        <v>22.63745721794069</v>
       </c>
       <c r="L24" t="n">
-        <v>79.26327222325551</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M24" t="n">
-        <v>44.50322539179104</v>
+        <v>94.33577146703887</v>
       </c>
       <c r="N24" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O24" t="n">
-        <v>96.08579107143831</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P24" t="n">
-        <v>57.58896866712135</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L26" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M26" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N26" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O26" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P26" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>22.63745721794069</v>
       </c>
       <c r="L27" t="n">
-        <v>46.01373392666385</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M27" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N27" t="n">
-        <v>101.9028910972017</v>
+        <v>38.53561326167322</v>
       </c>
       <c r="O27" t="n">
-        <v>96.08579107143831</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P27" t="n">
-        <v>57.58896866712135</v>
+        <v>55.80015820536565</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L29" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M29" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N29" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O29" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P29" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>22.63745721794069</v>
       </c>
       <c r="L30" t="n">
-        <v>46.01373392666385</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M30" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N30" t="n">
-        <v>101.9028910972017</v>
+        <v>94.33577146703885</v>
       </c>
       <c r="O30" t="n">
-        <v>96.08579107143831</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P30" t="n">
-        <v>57.58896866712135</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L32" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M32" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N32" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O32" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P32" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>79.26327222325551</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M33" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N33" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O33" t="n">
-        <v>62.83625277484666</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P33" t="n">
-        <v>57.58896866712135</v>
+        <v>19.64253837646157</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L35" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M35" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N35" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O35" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P35" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>22.63745721794069</v>
       </c>
       <c r="L36" t="n">
-        <v>79.26327222325551</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M36" t="n">
-        <v>68.65335280061002</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N36" t="n">
-        <v>101.9028910972017</v>
+        <v>94.33577146703885</v>
       </c>
       <c r="O36" t="n">
-        <v>96.08579107143831</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P36" t="n">
-        <v>57.58896866712135</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L38" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M38" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N38" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O38" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P38" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>22.63745721794069</v>
       </c>
       <c r="L39" t="n">
-        <v>79.26327222325551</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M39" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N39" t="n">
-        <v>101.9028910972017</v>
+        <v>38.53561326167322</v>
       </c>
       <c r="O39" t="n">
-        <v>62.83625277484666</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P39" t="n">
-        <v>57.58896866712135</v>
+        <v>55.80015820536565</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L41" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M41" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N41" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O41" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P41" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>22.63745721794069</v>
       </c>
       <c r="L42" t="n">
-        <v>46.01373392666385</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M42" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="N42" t="n">
-        <v>101.9028910972017</v>
+        <v>94.33577146703885</v>
       </c>
       <c r="O42" t="n">
-        <v>96.08579107143831</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P42" t="n">
-        <v>57.58896866712135</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>18.40922329898609</v>
+        <v>16.18212933127413</v>
       </c>
       <c r="L44" t="n">
-        <v>60.11277628448062</v>
+        <v>57.34986928441418</v>
       </c>
       <c r="M44" t="n">
-        <v>98.87637686008733</v>
+        <v>95.80211046732765</v>
       </c>
       <c r="N44" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O44" t="n">
-        <v>85.80765544443952</v>
+        <v>82.85774021983073</v>
       </c>
       <c r="P44" t="n">
-        <v>38.38535287443148</v>
+        <v>35.86766847892869</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>79.26327222325551</v>
+        <v>77.22930047652358</v>
       </c>
       <c r="M45" t="n">
-        <v>101.9028910972017</v>
+        <v>61.17307047961392</v>
       </c>
       <c r="N45" t="n">
-        <v>101.9028910972017</v>
+        <v>97.33069030851802</v>
       </c>
       <c r="O45" t="n">
-        <v>96.08579107143831</v>
+        <v>93.8569886202724</v>
       </c>
       <c r="P45" t="n">
-        <v>24.33943037052971</v>
+        <v>55.80015820536565</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.015348749355326</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
